--- a/biology/Botanique/Willkommia/Willkommia.xlsx
+++ b/biology/Botanique/Willkommia/Willkommia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willkommia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire d'Afrique australe et d'Amérique du Nord, qui comprend quatre espèces acceptées.
 Ce sont des plantes herbacées, annuelles  ou vivaces, stolonifères pour certaines, aux tiges décombantes de 20 à 60 cm de long. Les inflorescences sont composées de plusieurs racèmes.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (2 juin 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (2 juin 2018) :
 Willkommia annua Hack.
 Willkommia newtonii Hack.
 Willkommia sarmentosa Hack.
